--- a/temp/progress-tracker.xlsx
+++ b/temp/progress-tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\files-cdn\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08983A79-C9B8-4514-89C3-AB4B1BBF519B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC41234-09EA-4AC2-AE50-CD15CCEC90A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -703,12 +703,6 @@
 Udemy - Angular 8 (250/453)</t>
   </si>
   <si>
-    <t>Udemy Spring (370/562)
-Udemy Spring (380/562)
-Udemy Spring (390/562)
-Udemy Spring (400/562)</t>
-  </si>
-  <si>
     <t>Udemy Spring (420/562)
 Udemy Spring (430/562)
 Udemy Spring (440/562)
@@ -810,6 +804,33 @@
   <si>
     <t>GFG YTC DS - LinkedList
 GFG YTC DS - Graph</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Udemy Spring (370/562)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+Udemy Spring (380/562)
+Udemy Spring (390/562)
+Udemy Spring (400/562)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1558,27 +1579,6 @@
     <xf numFmtId="0" fontId="27" fillId="19" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="9" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="13">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="6" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="20" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -1588,6 +1588,27 @@
     </xf>
     <xf numFmtId="165" fontId="10" fillId="10" borderId="4" xfId="10" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="13">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="9" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="32">
@@ -3134,7 +3155,7 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3840,7 +3861,7 @@
         <v>15</v>
       </c>
       <c r="C22">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="D22">
         <v>562</v>
@@ -3866,7 +3887,7 @@
       </c>
       <c r="J22" s="38">
         <f t="shared" si="4"/>
-        <v>63.879003558718864</v>
+        <v>66.192170818505332</v>
       </c>
       <c r="K22" t="s">
         <v>63</v>
@@ -6461,7 +6482,7 @@
   <dimension ref="A1:N168"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A75" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85:E85"/>
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6487,11 +6508,11 @@
         <f ca="1">YEAR(TODAY())</f>
         <v>2020</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
@@ -6730,22 +6751,22 @@
         <f ca="1"/>
         <v>43865</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
     </row>
     <row r="14" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
     </row>
     <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A15" s="14"/>
@@ -6753,12 +6774,12 @@
         <f ca="1">YEAR(DATE(Calendar1Year,Calendar1MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C15" s="57" t="str">
+      <c r="C15" s="58" t="str">
         <f ca="1">TEXT(DATE(Calendar1Year,Calendar1MonthOption+1,1),"mmmm")</f>
         <v>February</v>
       </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="14"/>
@@ -6998,22 +7019,22 @@
         <f ca="1"/>
         <v>43893</v>
       </c>
-      <c r="D27" s="56" t="s">
+      <c r="D27" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
     </row>
     <row r="28" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
     </row>
     <row r="29" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A29" s="14"/>
@@ -7021,12 +7042,12 @@
         <f ca="1">YEAR(DATE(Calendar2Year,Calendar2MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C29" s="57" t="str">
+      <c r="C29" s="58" t="str">
         <f ca="1">TEXT(DATE(Calendar2Year,Calendar2MonthOption+1,1),"mmmm")</f>
         <v>March</v>
       </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="14"/>
@@ -7268,24 +7289,24 @@
         <f ca="1"/>
         <v>43921</v>
       </c>
-      <c r="D41" s="56" t="s">
+      <c r="D41" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
     </row>
     <row r="42" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="7"/>
       <c r="C42" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
     </row>
     <row r="43" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A43" s="14"/>
@@ -7293,12 +7314,12 @@
         <f ca="1">YEAR(DATE(Calendar3Year,Calendar3MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C43" s="57" t="str">
+      <c r="C43" s="58" t="str">
         <f ca="1">TEXT(DATE(Calendar3Year,Calendar3MonthOption+1,1),"mmmm")</f>
         <v>April</v>
       </c>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
       <c r="H43" s="14"/>
@@ -7617,24 +7638,24 @@
         <f ca="1"/>
         <v>43956</v>
       </c>
-      <c r="D55" s="55" t="s">
+      <c r="D55" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="E55" s="56"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
     </row>
     <row r="56" spans="1:14" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
-      <c r="D56" s="59" t="s">
+      <c r="D56" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="60"/>
-      <c r="H56" s="60"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
     </row>
     <row r="57" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A57" s="14"/>
@@ -7642,12 +7663,12 @@
         <f ca="1">YEAR(DATE(Calendar4Year,Calendar4MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C57" s="57" t="str">
+      <c r="C57" s="58" t="str">
         <f ca="1">TEXT(DATE(Calendar4Year,Calendar4MonthOption+1,1),"mmmm")</f>
         <v>May</v>
       </c>
-      <c r="D57" s="57"/>
-      <c r="E57" s="57"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="58"/>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
       <c r="H57" s="14"/>
@@ -7915,22 +7936,22 @@
         <f ca="1"/>
         <v>43984</v>
       </c>
-      <c r="D69" s="55" t="s">
+      <c r="D69" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
+      <c r="E69" s="60"/>
+      <c r="F69" s="60"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
     </row>
     <row r="70" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
-      <c r="D70" s="54"/>
-      <c r="E70" s="54"/>
-      <c r="F70" s="54"/>
-      <c r="G70" s="54"/>
-      <c r="H70" s="54"/>
+      <c r="D70" s="62"/>
+      <c r="E70" s="62"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="62"/>
+      <c r="H70" s="62"/>
     </row>
     <row r="71" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A71" s="14"/>
@@ -7938,12 +7959,12 @@
         <f ca="1">YEAR(DATE(Calendar5Year,Calendar5MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C71" s="57" t="str">
+      <c r="C71" s="58" t="str">
         <f ca="1">TEXT(DATE(Calendar5Year,Calendar5MonthOption+1,1),"mmmm")</f>
         <v>June</v>
       </c>
-      <c r="D71" s="57"/>
-      <c r="E71" s="57"/>
+      <c r="D71" s="58"/>
+      <c r="E71" s="58"/>
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
       <c r="H71" s="14"/>
@@ -8052,11 +8073,11 @@
       <c r="E76" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="F76" s="61"/>
-      <c r="G76" s="62" t="s">
+      <c r="F76" s="54"/>
+      <c r="G76" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="H76" s="62"/>
+      <c r="H76" s="55"/>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="8">
@@ -8089,22 +8110,22 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="62"/>
-      <c r="C78" s="62"/>
+      <c r="B78" s="55"/>
+      <c r="C78" s="55"/>
       <c r="D78" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="E78" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="E78" s="31" t="s">
+      <c r="F78" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="F78" s="31" t="s">
+      <c r="G78" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="G78" s="32" t="s">
+      <c r="H78" s="32" t="s">
         <v>187</v>
-      </c>
-      <c r="H78" s="32" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8148,10 +8169,10 @@
         <v>183</v>
       </c>
       <c r="E80" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="F80" s="31" t="s">
         <v>195</v>
-      </c>
-      <c r="F80" s="31" t="s">
-        <v>196</v>
       </c>
       <c r="G80" s="32" t="s">
         <v>176</v>
@@ -8192,10 +8213,10 @@
     </row>
     <row r="82" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C82" s="31" t="s">
         <v>190</v>
-      </c>
-      <c r="C82" s="31" t="s">
-        <v>191</v>
       </c>
       <c r="D82" s="31"/>
       <c r="E82" s="31"/>
@@ -8212,22 +8233,22 @@
         <f ca="1"/>
         <v>44019</v>
       </c>
-      <c r="D83" s="55" t="s">
+      <c r="D83" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="E83" s="56"/>
-      <c r="F83" s="56"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="56"/>
+      <c r="E83" s="60"/>
+      <c r="F83" s="60"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="60"/>
     </row>
     <row r="84" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
-      <c r="D84" s="54"/>
-      <c r="E84" s="54"/>
-      <c r="F84" s="54"/>
-      <c r="G84" s="54"/>
-      <c r="H84" s="54"/>
+      <c r="D84" s="62"/>
+      <c r="E84" s="62"/>
+      <c r="F84" s="62"/>
+      <c r="G84" s="62"/>
+      <c r="H84" s="62"/>
     </row>
     <row r="85" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A85" s="14"/>
@@ -8235,12 +8256,12 @@
         <f ca="1">YEAR(DATE(Calendar6Year,Calendar6MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C85" s="57" t="str">
+      <c r="C85" s="58" t="str">
         <f ca="1">TEXT(DATE(Calendar6Year,Calendar6MonthOption+1,1),"mmmm")</f>
         <v>July</v>
       </c>
-      <c r="D85" s="57"/>
-      <c r="E85" s="57"/>
+      <c r="D85" s="58"/>
+      <c r="E85" s="58"/>
       <c r="F85" s="15"/>
       <c r="G85" s="15"/>
       <c r="H85" s="14"/>
@@ -8277,11 +8298,11 @@
       </c>
     </row>
     <row r="87" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="64">
+      <c r="B87" s="57">
         <f t="array" aca="1" ref="B87:H87" ca="1">Days+1+DATE(Calendar7Year,Calendar7MonthOption,1)-WEEKDAY(DATE(Calendar7Year,Calendar7MonthOption,1),WeekdayOption)</f>
         <v>44011</v>
       </c>
-      <c r="C87" s="64">
+      <c r="C87" s="57">
         <f ca="1"/>
         <v>44012</v>
       </c>
@@ -8307,22 +8328,22 @@
       </c>
     </row>
     <row r="88" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="63"/>
-      <c r="C88" s="63"/>
+      <c r="B88" s="56"/>
+      <c r="C88" s="56"/>
       <c r="D88" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E88" s="31" t="s">
         <v>177</v>
       </c>
       <c r="F88" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G88" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="H88" s="32" t="s">
         <v>193</v>
-      </c>
-      <c r="H88" s="32" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8357,25 +8378,25 @@
     </row>
     <row r="90" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="C90" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="D90" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="C90" s="31" t="s">
+      <c r="E90" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="D90" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="E90" s="31" t="s">
+      <c r="F90" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="F90" s="31" t="s">
+      <c r="G90" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="G90" s="32" t="s">
+      <c r="H90" s="32" t="s">
         <v>202</v>
-      </c>
-      <c r="H90" s="32" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8504,22 +8525,22 @@
         <f ca="1"/>
         <v>44047</v>
       </c>
-      <c r="D97" s="55" t="s">
+      <c r="D97" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="E97" s="56"/>
-      <c r="F97" s="56"/>
-      <c r="G97" s="56"/>
-      <c r="H97" s="56"/>
+      <c r="E97" s="60"/>
+      <c r="F97" s="60"/>
+      <c r="G97" s="60"/>
+      <c r="H97" s="60"/>
     </row>
     <row r="98" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
-      <c r="D98" s="54"/>
-      <c r="E98" s="54"/>
-      <c r="F98" s="54"/>
-      <c r="G98" s="54"/>
-      <c r="H98" s="54"/>
+      <c r="D98" s="62"/>
+      <c r="E98" s="62"/>
+      <c r="F98" s="62"/>
+      <c r="G98" s="62"/>
+      <c r="H98" s="62"/>
     </row>
     <row r="99" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A99" s="14"/>
@@ -8527,12 +8548,12 @@
         <f ca="1">YEAR(DATE(Calendar7Year,Calendar7MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C99" s="57" t="str">
+      <c r="C99" s="58" t="str">
         <f ca="1">TEXT(DATE(Calendar7Year,Calendar7MonthOption+1,1),"mmmm")</f>
         <v>August</v>
       </c>
-      <c r="D99" s="57"/>
-      <c r="E99" s="57"/>
+      <c r="D99" s="58"/>
+      <c r="E99" s="58"/>
       <c r="F99" s="15"/>
       <c r="G99" s="15"/>
       <c r="H99" s="14"/>
@@ -8772,22 +8793,22 @@
         <f ca="1"/>
         <v>44075</v>
       </c>
-      <c r="D111" s="55" t="s">
+      <c r="D111" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="E111" s="56"/>
-      <c r="F111" s="56"/>
-      <c r="G111" s="56"/>
-      <c r="H111" s="56"/>
+      <c r="E111" s="60"/>
+      <c r="F111" s="60"/>
+      <c r="G111" s="60"/>
+      <c r="H111" s="60"/>
     </row>
     <row r="112" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
-      <c r="D112" s="54"/>
-      <c r="E112" s="54"/>
-      <c r="F112" s="54"/>
-      <c r="G112" s="54"/>
-      <c r="H112" s="54"/>
+      <c r="D112" s="62"/>
+      <c r="E112" s="62"/>
+      <c r="F112" s="62"/>
+      <c r="G112" s="62"/>
+      <c r="H112" s="62"/>
     </row>
     <row r="113" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A113" s="14"/>
@@ -8795,12 +8816,12 @@
         <f ca="1">YEAR(DATE(Calendar8Year,Calendar8MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C113" s="57" t="str">
+      <c r="C113" s="58" t="str">
         <f ca="1">TEXT(DATE(Calendar8Year,Calendar8MonthOption+1,1),"mmmm")</f>
         <v>September</v>
       </c>
-      <c r="D113" s="57"/>
-      <c r="E113" s="57"/>
+      <c r="D113" s="58"/>
+      <c r="E113" s="58"/>
       <c r="F113" s="15"/>
       <c r="G113" s="15"/>
       <c r="H113" s="14"/>
@@ -9040,22 +9061,22 @@
         <f ca="1"/>
         <v>44110</v>
       </c>
-      <c r="D125" s="55" t="s">
+      <c r="D125" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="E125" s="56"/>
-      <c r="F125" s="56"/>
-      <c r="G125" s="56"/>
-      <c r="H125" s="56"/>
+      <c r="E125" s="60"/>
+      <c r="F125" s="60"/>
+      <c r="G125" s="60"/>
+      <c r="H125" s="60"/>
     </row>
     <row r="126" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
-      <c r="D126" s="54"/>
-      <c r="E126" s="54"/>
-      <c r="F126" s="54"/>
-      <c r="G126" s="54"/>
-      <c r="H126" s="54"/>
+      <c r="D126" s="62"/>
+      <c r="E126" s="62"/>
+      <c r="F126" s="62"/>
+      <c r="G126" s="62"/>
+      <c r="H126" s="62"/>
     </row>
     <row r="127" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A127" s="14"/>
@@ -9063,12 +9084,12 @@
         <f ca="1">YEAR(DATE(Calendar9Year,Calendar9MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C127" s="57" t="str">
+      <c r="C127" s="58" t="str">
         <f ca="1">TEXT(DATE(Calendar9Year,Calendar9MonthOption+1,1),"mmmm")</f>
         <v>October</v>
       </c>
-      <c r="D127" s="57"/>
-      <c r="E127" s="57"/>
+      <c r="D127" s="58"/>
+      <c r="E127" s="58"/>
       <c r="F127" s="15"/>
       <c r="G127" s="15"/>
       <c r="H127" s="14"/>
@@ -9308,34 +9329,34 @@
         <f ca="1"/>
         <v>44138</v>
       </c>
-      <c r="D139" s="55" t="s">
+      <c r="D139" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="E139" s="56"/>
-      <c r="F139" s="56"/>
-      <c r="G139" s="56"/>
-      <c r="H139" s="56"/>
+      <c r="E139" s="60"/>
+      <c r="F139" s="60"/>
+      <c r="G139" s="60"/>
+      <c r="H139" s="60"/>
     </row>
     <row r="140" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
-      <c r="D140" s="54"/>
-      <c r="E140" s="54"/>
-      <c r="F140" s="54"/>
-      <c r="G140" s="54"/>
-      <c r="H140" s="54"/>
+      <c r="D140" s="62"/>
+      <c r="E140" s="62"/>
+      <c r="F140" s="62"/>
+      <c r="G140" s="62"/>
+      <c r="H140" s="62"/>
     </row>
     <row r="141" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.85">
       <c r="B141" s="16">
         <f ca="1">YEAR(DATE(Calendar10Year,Calendar10MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C141" s="57" t="str">
+      <c r="C141" s="58" t="str">
         <f ca="1">TEXT(DATE(Calendar10Year,Calendar10MonthOption+1,1),"mmmm")</f>
         <v>November</v>
       </c>
-      <c r="D141" s="57"/>
-      <c r="E141" s="57"/>
+      <c r="D141" s="58"/>
+      <c r="E141" s="58"/>
       <c r="F141" s="15"/>
       <c r="G141" s="15"/>
       <c r="H141" s="14"/>
@@ -9574,34 +9595,34 @@
         <f ca="1"/>
         <v>44166</v>
       </c>
-      <c r="D153" s="55" t="s">
+      <c r="D153" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="E153" s="56"/>
-      <c r="F153" s="56"/>
-      <c r="G153" s="56"/>
-      <c r="H153" s="56"/>
+      <c r="E153" s="60"/>
+      <c r="F153" s="60"/>
+      <c r="G153" s="60"/>
+      <c r="H153" s="60"/>
     </row>
     <row r="154" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
-      <c r="D154" s="54"/>
-      <c r="E154" s="54"/>
-      <c r="F154" s="54"/>
-      <c r="G154" s="54"/>
-      <c r="H154" s="54"/>
+      <c r="D154" s="62"/>
+      <c r="E154" s="62"/>
+      <c r="F154" s="62"/>
+      <c r="G154" s="62"/>
+      <c r="H154" s="62"/>
     </row>
     <row r="155" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.85">
       <c r="B155" s="16">
         <f ca="1">YEAR(DATE(Calendar11Year,Calendar11MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C155" s="57" t="str">
+      <c r="C155" s="58" t="str">
         <f ca="1">TEXT(DATE(Calendar11Year,Calendar11MonthOption+1,1),"mmmm")</f>
         <v>December</v>
       </c>
-      <c r="D155" s="57"/>
-      <c r="E155" s="57"/>
+      <c r="D155" s="58"/>
+      <c r="E155" s="58"/>
       <c r="F155" s="15"/>
       <c r="G155" s="15"/>
       <c r="H155" s="14"/>
@@ -9840,33 +9861,37 @@
         <f ca="1"/>
         <v>44201</v>
       </c>
-      <c r="D167" s="55" t="s">
+      <c r="D167" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="E167" s="56"/>
-      <c r="F167" s="56"/>
-      <c r="G167" s="56"/>
-      <c r="H167" s="56"/>
+      <c r="E167" s="60"/>
+      <c r="F167" s="60"/>
+      <c r="G167" s="60"/>
+      <c r="H167" s="60"/>
     </row>
     <row r="168" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
-      <c r="D168" s="54"/>
-      <c r="E168" s="54"/>
-      <c r="F168" s="54"/>
-      <c r="G168" s="54"/>
-      <c r="H168" s="54"/>
+      <c r="D168" s="62"/>
+      <c r="E168" s="62"/>
+      <c r="F168" s="62"/>
+      <c r="G168" s="62"/>
+      <c r="H168" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="D167:H167"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="C127:E127"/>
-    <mergeCell ref="C141:E141"/>
-    <mergeCell ref="C155:E155"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="D168:H168"/>
+    <mergeCell ref="D139:H139"/>
+    <mergeCell ref="D140:H140"/>
+    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="D84:H84"/>
+    <mergeCell ref="D126:H126"/>
+    <mergeCell ref="D111:H111"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="D125:H125"/>
+    <mergeCell ref="D98:H98"/>
+    <mergeCell ref="D112:H112"/>
+    <mergeCell ref="D154:H154"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C29:E29"/>
@@ -9883,18 +9908,14 @@
     <mergeCell ref="D27:H27"/>
     <mergeCell ref="D28:H28"/>
     <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D168:H168"/>
-    <mergeCell ref="D139:H139"/>
-    <mergeCell ref="D140:H140"/>
-    <mergeCell ref="D97:H97"/>
-    <mergeCell ref="D84:H84"/>
-    <mergeCell ref="D126:H126"/>
-    <mergeCell ref="D111:H111"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="D125:H125"/>
-    <mergeCell ref="D98:H98"/>
-    <mergeCell ref="D112:H112"/>
-    <mergeCell ref="D154:H154"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="D167:H167"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="C127:E127"/>
+    <mergeCell ref="C141:E141"/>
+    <mergeCell ref="C155:E155"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C99:E99"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:H3 B5:H5 B7:H7 B9:H9 B11:H11 B13:C13">
     <cfRule type="expression" dxfId="20" priority="21">

--- a/temp/progress-tracker.xlsx
+++ b/temp/progress-tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\files-cdn\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC41234-09EA-4AC2-AE50-CD15CCEC90A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB125261-F286-4221-A4BE-F101C370941E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -703,12 +703,6 @@
 Udemy - Angular 8 (250/453)</t>
   </si>
   <si>
-    <t>Udemy Spring (420/562)
-Udemy Spring (430/562)
-Udemy Spring (440/562)
-Udemy Spring (450/562)</t>
-  </si>
-  <si>
     <t>Udemy Spring (470/562)
 Udemy Spring (480/562)
 Udemy Spring (490/562)
@@ -806,16 +800,22 @@
 GFG YTC DS - Graph</t>
   </si>
   <si>
+    <t>Udemy Spring (370/562)
+Udemy Spring (380/562)
+Udemy Spring (390/562)
+Udemy Spring (400/562)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF00B050"/>
+        <color theme="1"/>
         <rFont val="Calibri Light"/>
         <family val="2"/>
         <scheme val="major"/>
       </rPr>
-      <t>Udemy Spring (370/562)</t>
+      <t>Udemy Spring (420/562)</t>
     </r>
     <r>
       <rPr>
@@ -827,9 +827,64 @@
         <scheme val="major"/>
       </rPr>
       <t xml:space="preserve">
-Udemy Spring (380/562)
-Udemy Spring (390/562)
-Udemy Spring (400/562)</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Udemy Spring (430/562)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Udemy Spring (440/562)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Udemy Spring (450/562)</t>
     </r>
   </si>
 </sst>
@@ -1108,7 +1163,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1233,6 +1288,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1452,7 +1513,7 @@
     </xf>
     <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1589,8 +1650,8 @@
     <xf numFmtId="165" fontId="10" fillId="10" borderId="4" xfId="10" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="13">
-      <alignment horizontal="left" indent="3"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="9" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1598,16 +1659,22 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="13">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -3155,7 +3222,7 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3861,7 +3928,7 @@
         <v>15</v>
       </c>
       <c r="C22">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="D22">
         <v>562</v>
@@ -3887,7 +3954,7 @@
       </c>
       <c r="J22" s="38">
         <f t="shared" si="4"/>
-        <v>66.192170818505332</v>
+        <v>80.782918149466198</v>
       </c>
       <c r="K22" t="s">
         <v>63</v>
@@ -6481,8 +6548,8 @@
   </sheetPr>
   <dimension ref="A1:N168"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView showGridLines="0" topLeftCell="A73" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6508,11 +6575,11 @@
         <f ca="1">YEAR(TODAY())</f>
         <v>2020</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
@@ -6751,22 +6818,22 @@
         <f ca="1"/>
         <v>43865</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
     </row>
     <row r="14" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
     </row>
     <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A15" s="14"/>
@@ -6774,12 +6841,12 @@
         <f ca="1">YEAR(DATE(Calendar1Year,Calendar1MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C15" s="58" t="str">
+      <c r="C15" s="61" t="str">
         <f ca="1">TEXT(DATE(Calendar1Year,Calendar1MonthOption+1,1),"mmmm")</f>
         <v>February</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="14"/>
@@ -7030,11 +7097,11 @@
     <row r="28" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
     </row>
     <row r="29" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A29" s="14"/>
@@ -7042,12 +7109,12 @@
         <f ca="1">YEAR(DATE(Calendar2Year,Calendar2MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C29" s="58" t="str">
+      <c r="C29" s="61" t="str">
         <f ca="1">TEXT(DATE(Calendar2Year,Calendar2MonthOption+1,1),"mmmm")</f>
         <v>March</v>
       </c>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="14"/>
@@ -7302,11 +7369,11 @@
       <c r="C42" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
     </row>
     <row r="43" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A43" s="14"/>
@@ -7314,12 +7381,12 @@
         <f ca="1">YEAR(DATE(Calendar3Year,Calendar3MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C43" s="58" t="str">
+      <c r="C43" s="61" t="str">
         <f ca="1">TEXT(DATE(Calendar3Year,Calendar3MonthOption+1,1),"mmmm")</f>
         <v>April</v>
       </c>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
       <c r="H43" s="14"/>
@@ -7663,12 +7730,12 @@
         <f ca="1">YEAR(DATE(Calendar4Year,Calendar4MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C57" s="58" t="str">
+      <c r="C57" s="61" t="str">
         <f ca="1">TEXT(DATE(Calendar4Year,Calendar4MonthOption+1,1),"mmmm")</f>
         <v>May</v>
       </c>
-      <c r="D57" s="58"/>
-      <c r="E57" s="58"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="61"/>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
       <c r="H57" s="14"/>
@@ -7947,11 +8014,11 @@
     <row r="70" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="62"/>
-      <c r="F70" s="62"/>
-      <c r="G70" s="62"/>
-      <c r="H70" s="62"/>
+      <c r="D70" s="58"/>
+      <c r="E70" s="58"/>
+      <c r="F70" s="58"/>
+      <c r="G70" s="58"/>
+      <c r="H70" s="58"/>
     </row>
     <row r="71" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A71" s="14"/>
@@ -7959,12 +8026,12 @@
         <f ca="1">YEAR(DATE(Calendar5Year,Calendar5MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C71" s="58" t="str">
+      <c r="C71" s="61" t="str">
         <f ca="1">TEXT(DATE(Calendar5Year,Calendar5MonthOption+1,1),"mmmm")</f>
         <v>June</v>
       </c>
-      <c r="D71" s="58"/>
-      <c r="E71" s="58"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="61"/>
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
       <c r="H71" s="14"/>
@@ -8064,13 +8131,13 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C76" s="40" t="s">
+      <c r="C76" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="D76" s="40" t="s">
+      <c r="D76" s="65" t="s">
         <v>173</v>
       </c>
-      <c r="E76" s="40" t="s">
+      <c r="E76" s="65" t="s">
         <v>172</v>
       </c>
       <c r="F76" s="54"/>
@@ -8112,20 +8179,20 @@
     <row r="78" spans="1:8" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="55"/>
       <c r="C78" s="55"/>
-      <c r="D78" s="31" t="s">
+      <c r="D78" s="65" t="s">
+        <v>202</v>
+      </c>
+      <c r="E78" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="E78" s="31" t="s">
+      <c r="F78" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="F78" s="31" t="s">
+      <c r="G78" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="G78" s="32" t="s">
+      <c r="H78" s="32" t="s">
         <v>186</v>
-      </c>
-      <c r="H78" s="32" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8169,10 +8236,10 @@
         <v>183</v>
       </c>
       <c r="E80" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="F80" s="31" t="s">
         <v>194</v>
-      </c>
-      <c r="F80" s="31" t="s">
-        <v>195</v>
       </c>
       <c r="G80" s="32" t="s">
         <v>176</v>
@@ -8213,10 +8280,10 @@
     </row>
     <row r="82" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C82" s="31" t="s">
         <v>189</v>
-      </c>
-      <c r="C82" s="31" t="s">
-        <v>190</v>
       </c>
       <c r="D82" s="31"/>
       <c r="E82" s="31"/>
@@ -8244,11 +8311,11 @@
     <row r="84" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
-      <c r="D84" s="62"/>
-      <c r="E84" s="62"/>
-      <c r="F84" s="62"/>
-      <c r="G84" s="62"/>
-      <c r="H84" s="62"/>
+      <c r="D84" s="58"/>
+      <c r="E84" s="58"/>
+      <c r="F84" s="58"/>
+      <c r="G84" s="58"/>
+      <c r="H84" s="58"/>
     </row>
     <row r="85" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A85" s="14"/>
@@ -8256,12 +8323,12 @@
         <f ca="1">YEAR(DATE(Calendar6Year,Calendar6MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C85" s="58" t="str">
+      <c r="C85" s="61" t="str">
         <f ca="1">TEXT(DATE(Calendar6Year,Calendar6MonthOption+1,1),"mmmm")</f>
         <v>July</v>
       </c>
-      <c r="D85" s="58"/>
-      <c r="E85" s="58"/>
+      <c r="D85" s="61"/>
+      <c r="E85" s="61"/>
       <c r="F85" s="15"/>
       <c r="G85" s="15"/>
       <c r="H85" s="14"/>
@@ -8331,19 +8398,19 @@
       <c r="B88" s="56"/>
       <c r="C88" s="56"/>
       <c r="D88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E88" s="31" t="s">
         <v>177</v>
       </c>
       <c r="F88" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G88" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="H88" s="32" t="s">
         <v>192</v>
-      </c>
-      <c r="H88" s="32" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8378,25 +8445,25 @@
     </row>
     <row r="90" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="C90" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="D90" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="C90" s="31" t="s">
+      <c r="E90" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="D90" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="E90" s="31" t="s">
+      <c r="F90" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="F90" s="31" t="s">
+      <c r="G90" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="G90" s="32" t="s">
+      <c r="H90" s="32" t="s">
         <v>201</v>
-      </c>
-      <c r="H90" s="32" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8536,11 +8603,11 @@
     <row r="98" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
-      <c r="D98" s="62"/>
-      <c r="E98" s="62"/>
-      <c r="F98" s="62"/>
-      <c r="G98" s="62"/>
-      <c r="H98" s="62"/>
+      <c r="D98" s="58"/>
+      <c r="E98" s="58"/>
+      <c r="F98" s="58"/>
+      <c r="G98" s="58"/>
+      <c r="H98" s="58"/>
     </row>
     <row r="99" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A99" s="14"/>
@@ -8548,12 +8615,12 @@
         <f ca="1">YEAR(DATE(Calendar7Year,Calendar7MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C99" s="58" t="str">
+      <c r="C99" s="61" t="str">
         <f ca="1">TEXT(DATE(Calendar7Year,Calendar7MonthOption+1,1),"mmmm")</f>
         <v>August</v>
       </c>
-      <c r="D99" s="58"/>
-      <c r="E99" s="58"/>
+      <c r="D99" s="61"/>
+      <c r="E99" s="61"/>
       <c r="F99" s="15"/>
       <c r="G99" s="15"/>
       <c r="H99" s="14"/>
@@ -8804,11 +8871,11 @@
     <row r="112" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
-      <c r="D112" s="62"/>
-      <c r="E112" s="62"/>
-      <c r="F112" s="62"/>
-      <c r="G112" s="62"/>
-      <c r="H112" s="62"/>
+      <c r="D112" s="58"/>
+      <c r="E112" s="58"/>
+      <c r="F112" s="58"/>
+      <c r="G112" s="58"/>
+      <c r="H112" s="58"/>
     </row>
     <row r="113" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A113" s="14"/>
@@ -8816,12 +8883,12 @@
         <f ca="1">YEAR(DATE(Calendar8Year,Calendar8MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C113" s="58" t="str">
+      <c r="C113" s="61" t="str">
         <f ca="1">TEXT(DATE(Calendar8Year,Calendar8MonthOption+1,1),"mmmm")</f>
         <v>September</v>
       </c>
-      <c r="D113" s="58"/>
-      <c r="E113" s="58"/>
+      <c r="D113" s="61"/>
+      <c r="E113" s="61"/>
       <c r="F113" s="15"/>
       <c r="G113" s="15"/>
       <c r="H113" s="14"/>
@@ -9072,11 +9139,11 @@
     <row r="126" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
-      <c r="D126" s="62"/>
-      <c r="E126" s="62"/>
-      <c r="F126" s="62"/>
-      <c r="G126" s="62"/>
-      <c r="H126" s="62"/>
+      <c r="D126" s="58"/>
+      <c r="E126" s="58"/>
+      <c r="F126" s="58"/>
+      <c r="G126" s="58"/>
+      <c r="H126" s="58"/>
     </row>
     <row r="127" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A127" s="14"/>
@@ -9084,12 +9151,12 @@
         <f ca="1">YEAR(DATE(Calendar9Year,Calendar9MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C127" s="58" t="str">
+      <c r="C127" s="61" t="str">
         <f ca="1">TEXT(DATE(Calendar9Year,Calendar9MonthOption+1,1),"mmmm")</f>
         <v>October</v>
       </c>
-      <c r="D127" s="58"/>
-      <c r="E127" s="58"/>
+      <c r="D127" s="61"/>
+      <c r="E127" s="61"/>
       <c r="F127" s="15"/>
       <c r="G127" s="15"/>
       <c r="H127" s="14"/>
@@ -9340,23 +9407,23 @@
     <row r="140" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
-      <c r="D140" s="62"/>
-      <c r="E140" s="62"/>
-      <c r="F140" s="62"/>
-      <c r="G140" s="62"/>
-      <c r="H140" s="62"/>
+      <c r="D140" s="58"/>
+      <c r="E140" s="58"/>
+      <c r="F140" s="58"/>
+      <c r="G140" s="58"/>
+      <c r="H140" s="58"/>
     </row>
     <row r="141" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.85">
       <c r="B141" s="16">
         <f ca="1">YEAR(DATE(Calendar10Year,Calendar10MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C141" s="58" t="str">
+      <c r="C141" s="61" t="str">
         <f ca="1">TEXT(DATE(Calendar10Year,Calendar10MonthOption+1,1),"mmmm")</f>
         <v>November</v>
       </c>
-      <c r="D141" s="58"/>
-      <c r="E141" s="58"/>
+      <c r="D141" s="61"/>
+      <c r="E141" s="61"/>
       <c r="F141" s="15"/>
       <c r="G141" s="15"/>
       <c r="H141" s="14"/>
@@ -9606,23 +9673,23 @@
     <row r="154" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
-      <c r="D154" s="62"/>
-      <c r="E154" s="62"/>
-      <c r="F154" s="62"/>
-      <c r="G154" s="62"/>
-      <c r="H154" s="62"/>
+      <c r="D154" s="58"/>
+      <c r="E154" s="58"/>
+      <c r="F154" s="58"/>
+      <c r="G154" s="58"/>
+      <c r="H154" s="58"/>
     </row>
     <row r="155" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.85">
       <c r="B155" s="16">
         <f ca="1">YEAR(DATE(Calendar11Year,Calendar11MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C155" s="58" t="str">
+      <c r="C155" s="61" t="str">
         <f ca="1">TEXT(DATE(Calendar11Year,Calendar11MonthOption+1,1),"mmmm")</f>
         <v>December</v>
       </c>
-      <c r="D155" s="58"/>
-      <c r="E155" s="58"/>
+      <c r="D155" s="61"/>
+      <c r="E155" s="61"/>
       <c r="F155" s="15"/>
       <c r="G155" s="15"/>
       <c r="H155" s="14"/>
@@ -9872,26 +9939,22 @@
     <row r="168" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
-      <c r="D168" s="62"/>
-      <c r="E168" s="62"/>
-      <c r="F168" s="62"/>
-      <c r="G168" s="62"/>
-      <c r="H168" s="62"/>
+      <c r="D168" s="58"/>
+      <c r="E168" s="58"/>
+      <c r="F168" s="58"/>
+      <c r="G168" s="58"/>
+      <c r="H168" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D168:H168"/>
-    <mergeCell ref="D139:H139"/>
-    <mergeCell ref="D140:H140"/>
-    <mergeCell ref="D97:H97"/>
-    <mergeCell ref="D84:H84"/>
-    <mergeCell ref="D126:H126"/>
-    <mergeCell ref="D111:H111"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="D125:H125"/>
-    <mergeCell ref="D98:H98"/>
-    <mergeCell ref="D112:H112"/>
-    <mergeCell ref="D154:H154"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="D167:H167"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="C127:E127"/>
+    <mergeCell ref="C141:E141"/>
+    <mergeCell ref="C155:E155"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C99:E99"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C29:E29"/>
@@ -9908,14 +9971,18 @@
     <mergeCell ref="D27:H27"/>
     <mergeCell ref="D28:H28"/>
     <mergeCell ref="D41:H41"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="D167:H167"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="C127:E127"/>
-    <mergeCell ref="C141:E141"/>
-    <mergeCell ref="C155:E155"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="D168:H168"/>
+    <mergeCell ref="D139:H139"/>
+    <mergeCell ref="D140:H140"/>
+    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="D84:H84"/>
+    <mergeCell ref="D126:H126"/>
+    <mergeCell ref="D111:H111"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="D125:H125"/>
+    <mergeCell ref="D98:H98"/>
+    <mergeCell ref="D112:H112"/>
+    <mergeCell ref="D154:H154"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:H3 B5:H5 B7:H7 B9:H9 B11:H11 B13:C13">
     <cfRule type="expression" dxfId="20" priority="21">
